--- a/NERPrj/self_tagged/需要调节的点.xlsx
+++ b/NERPrj/self_tagged/需要调节的点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,7 +91,253 @@
     <t xml:space="preserve">Antalya/LOCATION ,/O Chinese/O President/O Xi/PERSON Jinping/PERSON -LRB-/O above/O -RRB-/O and/O his/O US/LOCATION counterpart/O Barack/PERSON Obama/PERSON flew/O to/O the/O Philippine/O capital/O of/O Manila/LOCATION for/O a/O two-day/O meeting/O of/O the/O 21/O members/O of/O the/O Asia-Pacific/ORGANIZATION Economic/ORGANIZATION Cooperation/ORGANIZATION -LRB-/O APEC/ORGANIZATION -RRB-/O forum/O ./O </t>
   </si>
   <si>
-    <t>APEC 是否算 【ORG】</t>
+    <t>自己看NER规范P18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时，根据Wiki，Islam是宗教，Muslims是宗教团体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With/O the/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;China-Pakistan/ORGANIZATION Economic/ORGANIZATION Corridor/ORGANIZATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -LRB-/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;CPEC/ORGANIZATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -RRB-/O ,/O Beijing/LOCATION aims/O to/O expand/O its/O influence/O on/O Pakistan/LOCATION and/O across/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;LOCATION&gt;Central/O&lt;/LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and/O South/LOCATION Asia/LOCATION in/O order/O to/O counter/O the/O US/LOCATION and/O Indian/O influence/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t>根据Wiki，CPEC是一条经济【走廊】，其功能与【丝路】类似，同时它经过【新疆喀什】，所以标记为【U_LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPEC 标记为 【U_LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;OTHER&gt;Will/PERSON&lt;/OTHER&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF606060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;OTHER&gt;Baloch/PERSON&lt;/OTHER&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> separatists/O ,/O who/O demand/O their/O share/O of/O the/O province/O 's/O wealth/O ,/O allow/O Islamabad/LOCATION to/O implement/O the/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;CPEC/ORGANIZATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ?/O</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baloch 标记为 【O】||Balochistan 标记为 【LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baloch 是Balochistan【LOC】的人民，所以不是实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APEC 是否算 【ORG】，个人觉得算【ORG】,因为由多个国家组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Before/O the/O referendum/O ,/O the/O Chinese/ORGANIZATION State/ORGANIZATION Council/ORGANIZATION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF606060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;OTHER&gt;'s/ORGANIZATION&lt;/OTHER&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Information/ORGANIZATION Office/ORGANIZATION issued/O a/O white/O paper/O on/O June/O 9/O emphasizing/O the/O one/O country/O model/O and/O stressing/O that/O whatever/O power/O Hong/LOCATION Kong/LOCATION has/O ,/O it/O comes/O from/O Beijing/LOCATION ./O</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者和被所有者的标注：【所有者】/【实体】 's/【其它】 【被所有者】/【实体】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见依据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Police/O also/O would/O not/O say/O why/O Wang/I-PER was/O being/O sent/O to/O a/O study/O class/O --/O a/O holdover/O from/O the/O chaotic/O 1966-76/I-MISC Cultural/I-MISC Revolution/I-MISC --/O or/O say/O when/O he/O would/O be/O released/O ,/O the/O group/O said/O ./O </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The/O mass/O show/O trials/O are/O proof/O that/O Chinese/O rule/O in/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;East/LOCATION Turkestan/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is/O similar/O to/O that/O of/O the/O days/O of/O Mao/PERSON 's/O notorious/O Cultural/O Revolution/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t>文化大革命是事件，不是组织，所以不标注（可参考依据1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Patrick/PERSON Barron/PERSON ,/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;ORGANIZATION&gt;The/O&lt;/ORGANIZATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Asia/ORGANIZATION Foundation/ORGANIZATION 's/O regional/O director/O for/O conflict/O and/O development/O ,/O says/O in/O a/O &lt;ORGANIZATION&gt;DW/O&lt;/ORGANIZATION&gt; interview/O that/O the/O growth-stimulating/O strategies/O chosen/O by/O Asian/O countries/O have/O led/O to/O such/O subnational/O conflicts/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">August/O 21-25/O Sixth/O test/O (/O at/O The/I-LOC Oval/I-LOC ,/O London/I-LOC )/O ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种【实体】名称前有【T】he，注意是T大写，则【The】 也是实体一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教组织算【ORG】||可以参考标记NER标注规范中的【religious orders】（宗教组织）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muslims 到底算哪一种，【O】或者【ORG】，我的理解是Muslims是一个群体，但是不是一个组织，所以不用标记为【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">He/O said/O ministry/O officials/O made/O him/O sign/O this/O a/O few/O weeks/O ago/O after/O he/O brought/O about/O a/O dozen/O copies/O from/O Jordan/I-LOC of/O a/O book/O by/O Edward/I-PER Said/I-PER ,/O a/O prominent/O scholar/O at/O New/I-LOC York/I-LOC City/I-LOC 's/O Columbia/I-ORG University/I-ORG ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The/O economics/O professor/O last/O taught/O at/O Beijing/LOCATION 's/O Minzu/ORGANIZATION University/ORGANIZATION and/O ,/O according/O to/O the/O charges/O against/O him/O ,/O also/O organized/O and/O led/O separatist/O groups/O ./O</t>
+  </si>
+  <si>
+    <t>根据依据一，还是各自标注，互不相干</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +372,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF606060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00319F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,9 +405,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -516,10 +775,92 @@
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/NERPrj/self_tagged/需要调节的点.xlsx
+++ b/NERPrj/self_tagged/需要调节的点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,83 +261,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">The/O mass/O show/O trials/O are/O proof/O that/O Chinese/O rule/O in/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;East/LOCATION Turkestan/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is/O similar/O to/O that/O of/O the/O days/O of/O Mao/PERSON 's/O notorious/O Cultural/O Revolution/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t>文化大革命是事件，不是组织，所以不标注（可参考依据1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Patrick/PERSON Barron/PERSON ,/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;ORGANIZATION&gt;The/O&lt;/ORGANIZATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Asia/ORGANIZATION Foundation/ORGANIZATION 's/O regional/O director/O for/O conflict/O and/O development/O ,/O says/O in/O a/O &lt;ORGANIZATION&gt;DW/O&lt;/ORGANIZATION&gt; interview/O that/O the/O growth-stimulating/O strategies/O chosen/O by/O Asian/O countries/O have/O led/O to/O such/O subnational/O conflicts/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">August/O 21-25/O Sixth/O test/O (/O at/O The/I-LOC Oval/I-LOC ,/O London/I-LOC )/O ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种【实体】名称前有【T】he，注意是T大写，则【The】 也是实体一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教组织算【ORG】||可以参考标记NER标注规范中的【religious orders】（宗教组织）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The/O economics/O professor/O last/O taught/O at/O Beijing/LOCATION 's/O Minzu/ORGANIZATION University/ORGANIZATION and/O ,/O according/O to/O the/O charges/O against/O him/O ,/O also/O organized/O and/O led/O separatist/O groups/O ./O</t>
+  </si>
+  <si>
+    <t>根据依据一，还是各自标注，互不相干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE/I-ORG MUSLIM/I-ORG</t>
+  </si>
+  <si>
+    <t>Muslim 到底算哪一种，【O】或者【ORG】，从语料库得到的依据1是可以标注为【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kremlin 要标记为【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the &lt;B_ENAMEX TYPE="ORGANIZATION"&gt;kremlin&lt;E_ENAMEX&gt; 来自 NER 标注规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品不标注，但是生产者要标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Police/O also/O would/O not/O say/O why/O Wang/I-PER was/O being/O sent/O to/O a/O study/O class/O --/O a/O holdover/O from/O the/O chaotic/O 1966-76/I-MISC Cultural/I-MISC Revolution/I-MISC --/O or/O say/O when/O he/O would/O be/O released/O ,/O the/O group/O said/O ./O </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The/O mass/O show/O trials/O are/O proof/O that/O Chinese/O rule/O in/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;East/LOCATION Turkestan/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is/O similar/O to/O that/O of/O the/O days/O of/O Mao/PERSON 's/O notorious/O Cultural/O Revolution/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t>文化大革命是事件，不是组织，所以不标注（可参考依据1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Patrick/PERSON Barron/PERSON ,/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF00319F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;ORGANIZATION&gt;The/O&lt;/ORGANIZATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Asia/ORGANIZATION Foundation/ORGANIZATION 's/O regional/O director/O for/O conflict/O and/O development/O ,/O says/O in/O a/O &lt;ORGANIZATION&gt;DW/O&lt;/ORGANIZATION&gt; interview/O that/O the/O growth-stimulating/O strategies/O chosen/O by/O Asian/O countries/O have/O led/O to/O such/O subnational/O conflicts/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">August/O 21-25/O Sixth/O test/O (/O at/O The/I-LOC Oval/I-LOC ,/O London/I-LOC )/O ./O </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种【实体】名称前有【T】he，注意是T大写，则【The】 也是实体一部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宗教组织算【ORG】||可以参考标记NER标注规范中的【religious orders】（宗教组织）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muslims 到底算哪一种，【O】或者【ORG】，我的理解是Muslims是一个群体，但是不是一个组织，所以不用标记为【ORG】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">He/O said/O ministry/O officials/O made/O him/O sign/O this/O a/O few/O weeks/O ago/O after/O he/O brought/O about/O a/O dozen/O copies/O from/O Jordan/I-LOC of/O a/O book/O by/O Edward/I-PER Said/I-PER ,/O a/O prominent/O scholar/O at/O New/I-LOC York/I-LOC City/I-LOC 's/O Columbia/I-ORG University/I-ORG ./O </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The/O economics/O professor/O last/O taught/O at/O Beijing/LOCATION 's/O Minzu/ORGANIZATION University/ORGANIZATION and/O ,/O according/O to/O the/O charges/O against/O him/O ,/O also/O organized/O and/O led/O separatist/O groups/O ./O</t>
-  </si>
-  <si>
-    <t>根据依据一，还是各自标注，互不相干</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -783,7 +799,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -827,40 +843,56 @@
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/NERPrj/self_tagged/需要调节的点.xlsx
+++ b/NERPrj/self_tagged/需要调节的点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <t>What/O chances/O for/O cooperation/O could/O arise/O from/O the/O fact/O that/O China/LOCATION chairs/O the/O G20/O group/O this/O year/O and/O Germany/LOCATION will/O take/O over/O next/O year/O ?/O</t>
   </si>
   <si>
-    <t>G20 是论坛的形式，算【ORG】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Police/O have/O detained/O 26/O suspected/O members/O of/O Egypt/I-LOC 's/O largest/O militant/O group/O al-Gama'a/I-ORG al-Islamiya/I-ORG (/O Islamic/I-ORG Group/I-ORG )/O ,/O government/O newspapers/O reported/O on/O Friday/O ./O </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,11 +345,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">He/O said/O ministry/O officials/O made/O him/O sign/O this/O a/O few/O weeks/O ago/O after/O he/O brought/O about/O a/O dozen/O copies/O from/O Jordan/I-LOC of/O a/O book/O by/O Edward/I-PER Said/I-PER ,/O a/O prominent/O scholar/O at/O New/I-LOC York/I-LOC City/I-LOC 's/O Columbia/I-ORG University/I-ORG ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Police/O also/O would/O not/O say/O why/O Wang/I-PER was/O being/O sent/O to/O a/O study/O class/O --/O a/O holdover/O from/O the/O chaotic/O 1966-76/I-MISC Cultural/I-MISC Revolution/I-MISC --/O or/O say/O when/O he/O would/O be/O released/O ,/O the/O group/O said/O ./O </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">He/O said/O ministry/O officials/O made/O him/O sign/O this/O a/O few/O weeks/O ago/O after/O he/O brought/O about/O a/O dozen/O copies/O from/O Jordan/I-LOC of/O a/O book/O by/O Edward/I-PER Said/I-PER ,/O a/O prominent/O scholar/O at/O New/I-LOC York/I-LOC City/I-LOC 's/O Columbia/I-ORG University/I-ORG ./O </t>
+    <t>G20 是论坛、club的形式，算【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/O The/O United/I-LOC States/I-LOC will/O continue/O to/O return/O Cuban/I-MISC migrants/O intercepted/O at/O sea/O who/O seek/O to/O enter/O the/O United/I-LOC States/I-LOC or/O the/O Guantanamo/I-LOC Naval/I-LOC Base/I-LOC illegally/O ,/O /O it/O said/O ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事基地标注为【LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boao Forum 是一个 非营利组织【from Wiki】，建议标注为【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Boao Forum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标注为【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ORG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +447,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00319F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -421,10 +475,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -729,13 +786,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -767,7 +827,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -775,78 +835,78 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -854,46 +914,65 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NERPrj/self_tagged/需要调节的点.xlsx
+++ b/NERPrj/self_tagged/需要调节的点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,6 +24,229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">The/O group/O attributed/O the/O first-half/O losses/O to/O weak/O demand/O and/O falling/O prices/O of/O viscose/O fibres/O ,/O as/O well/O as/O sluggish/O economies/O in/O the/O West/I-LOC ./O </t>
+  </si>
+  <si>
+    <t>调整依据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">They/O said/O in/O a/O statement/O they/O agreed/O to/O have/O regular/O telephone/O contact/O to/O discuss/O progress/O in/O strengthening/O ties/O with/O the/O West/I-LOC ./O </t>
+  </si>
+  <si>
+    <t>依据2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the West</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What/O chances/O for/O cooperation/O could/O arise/O from/O the/O fact/O that/O China/LOCATION chairs/O the/O G20/O group/O this/O year/O and/O Germany/LOCATION will/O take/O over/O next/O year/O ?/O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police/O have/O detained/O 26/O suspected/O members/O of/O Egypt/I-LOC 's/O largest/O militant/O group/O al-Gama'a/I-ORG al-Islamiya/I-ORG (/O Islamic/I-ORG Group/I-ORG )/O ,/O government/O newspapers/O reported/O on/O Friday/O ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Islamic/I-ORG Group/I-ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The/O party/O ,/O the/O Democratic/I-ORG Left/I-ORG Alliance/I-ORG ,/O says/O the/O agreement/O would/O give/O the/O Catholic/I-ORG Church/I-ORG too/O much/O influence/O over/O life/O in/O Poland/I-LOC and/O could/O infringe/O on/O rights/O of/O other/O religious/O groups/O and/O non-believers/O ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the/O Catholic/I-ORG Church/I-ORG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Antalya/LOCATION ,/O Chinese/O President/O Xi/PERSON Jinping/PERSON -LRB-/O above/O -RRB-/O and/O his/O US/LOCATION counterpart/O Barack/PERSON Obama/PERSON flew/O to/O the/O Philippine/O capital/O of/O Manila/LOCATION for/O a/O two-day/O meeting/O of/O the/O 21/O members/O of/O the/O Asia-Pacific/ORGANIZATION Economic/ORGANIZATION Cooperation/ORGANIZATION -LRB-/O APEC/ORGANIZATION -RRB-/O forum/O ./O </t>
+  </si>
+  <si>
+    <t>自己看NER规范P18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With/O the/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;China-Pakistan/ORGANIZATION Economic/ORGANIZATION Corridor/ORGANIZATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -LRB-/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;CPEC/ORGANIZATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -RRB-/O ,/O Beijing/LOCATION aims/O to/O expand/O its/O influence/O on/O Pakistan/LOCATION and/O across/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;LOCATION&gt;Central/O&lt;/LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and/O South/LOCATION Asia/LOCATION in/O order/O to/O counter/O the/O US/LOCATION and/O Indian/O influence/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t>根据Wiki，CPEC是一条经济【走廊】，其功能与【丝路】类似，同时它经过【新疆喀什】，所以标记为【U_LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPEC 标记为 【U_LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baloch 是Balochistan【LOC】的人民，所以不是实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APEC 是否算 【ORG】，个人觉得算【ORG】,因为由多个国家组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者和被所有者的标注：【所有者】/【实体】 's/【其它】 【被所有者】/【实体】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见依据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The/O mass/O show/O trials/O are/O proof/O that/O Chinese/O rule/O in/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070A1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;U_LOCATION&gt;East/LOCATION Turkestan/LOCATION&lt;/U_LOCATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is/O similar/O to/O that/O of/O the/O days/O of/O Mao/PERSON 's/O notorious/O Cultural/O Revolution/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t>文化大革命是事件，不是组织，所以不标注（可参考依据1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Patrick/PERSON Barron/PERSON ,/O </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;ORGANIZATION&gt;The/O&lt;/ORGANIZATION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Asia/ORGANIZATION Foundation/ORGANIZATION 's/O regional/O director/O for/O conflict/O and/O development/O ,/O says/O in/O a/O &lt;ORGANIZATION&gt;DW/O&lt;/ORGANIZATION&gt; interview/O that/O the/O growth-stimulating/O strategies/O chosen/O by/O Asian/O countries/O have/O led/O to/O such/O subnational/O conflicts/O ./O</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">August/O 21-25/O Sixth/O test/O (/O at/O The/I-LOC Oval/I-LOC ,/O London/I-LOC )/O ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种【实体】名称前有【T】he，注意是T大写，则【The】 也是实体一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The/O economics/O professor/O last/O taught/O at/O Beijing/LOCATION 's/O Minzu/ORGANIZATION University/ORGANIZATION and/O ,/O according/O to/O the/O charges/O against/O him/O ,/O also/O organized/O and/O led/O separatist/O groups/O ./O</t>
+  </si>
+  <si>
+    <t>根据依据一，还是各自标注，互不相干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muslim 到底算哪一种，【O】或者【ORG】，从语料库得到的依据1是可以标注为【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kremlin 要标记为【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the &lt;B_ENAMEX TYPE="ORGANIZATION"&gt;kremlin&lt;E_ENAMEX&gt; 来自 NER 标注规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">He/O said/O ministry/O officials/O made/O him/O sign/O this/O a/O few/O weeks/O ago/O after/O he/O brought/O about/O a/O dozen/O copies/O from/O Jordan/I-LOC of/O a/O book/O by/O Edward/I-PER Said/I-PER ,/O a/O prominent/O scholar/O at/O New/I-LOC York/I-LOC City/I-LOC 's/O Columbia/I-ORG University/I-ORG ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Police/O also/O would/O not/O say/O why/O Wang/I-PER was/O being/O sent/O to/O a/O study/O class/O --/O a/O holdover/O from/O the/O chaotic/O 1966-76/I-MISC Cultural/I-MISC Revolution/I-MISC --/O or/O say/O when/O he/O would/O be/O released/O ,/O the/O group/O said/O ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G20 是论坛、club的形式，算【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/O The/O United/I-LOC States/I-LOC will/O continue/O to/O return/O Cuban/I-MISC migrants/O intercepted/O at/O sea/O who/O seek/O to/O enter/O the/O United/I-LOC States/I-LOC or/O the/O Guantanamo/I-LOC Naval/I-LOC Base/I-LOC illegally/O ,/O /O it/O said/O ./O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事基地标注为【LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">So/O far/O ,/O the/O West/LOCATION has/O been/O critical/O ,/O and/O has/O seen/O China/LOCATION 's/O fight/O against/O Islamists/O in/O </t>
     </r>
@@ -48,244 +271,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">The/O group/O attributed/O the/O first-half/O losses/O to/O weak/O demand/O and/O falling/O prices/O of/O viscose/O fibres/O ,/O as/O well/O as/O sluggish/O economies/O in/O the/O West/I-LOC ./O </t>
-  </si>
-  <si>
-    <t>调整依据1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">They/O said/O in/O a/O statement/O they/O agreed/O to/O have/O regular/O telephone/O contact/O to/O discuss/O progress/O in/O strengthening/O ties/O with/O the/O West/I-LOC ./O </t>
-  </si>
-  <si>
-    <t>依据2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the West</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What/O chances/O for/O cooperation/O could/O arise/O from/O the/O fact/O that/O China/LOCATION chairs/O the/O G20/O group/O this/O year/O and/O Germany/LOCATION will/O take/O over/O next/O year/O ?/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Police/O have/O detained/O 26/O suspected/O members/O of/O Egypt/I-LOC 's/O largest/O militant/O group/O al-Gama'a/I-ORG al-Islamiya/I-ORG (/O Islamic/I-ORG Group/I-ORG )/O ,/O government/O newspapers/O reported/O on/O Friday/O ./O </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Islamic/I-ORG Group/I-ORG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The/O party/O ,/O the/O Democratic/I-ORG Left/I-ORG Alliance/I-ORG ,/O says/O the/O agreement/O would/O give/O the/O Catholic/I-ORG Church/I-ORG too/O much/O influence/O over/O life/O in/O Poland/I-LOC and/O could/O infringe/O on/O rights/O of/O other/O religious/O groups/O and/O non-believers/O ./O </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the/O Catholic/I-ORG Church/I-ORG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Antalya/LOCATION ,/O Chinese/O President/O Xi/PERSON Jinping/PERSON -LRB-/O above/O -RRB-/O and/O his/O US/LOCATION counterpart/O Barack/PERSON Obama/PERSON flew/O to/O the/O Philippine/O capital/O of/O Manila/LOCATION for/O a/O two-day/O meeting/O of/O the/O 21/O members/O of/O the/O Asia-Pacific/ORGANIZATION Economic/ORGANIZATION Cooperation/ORGANIZATION -LRB-/O APEC/ORGANIZATION -RRB-/O forum/O ./O </t>
-  </si>
-  <si>
-    <t>自己看NER规范P18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时，根据Wiki，Islam是宗教，Muslims是宗教团体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">With/O the/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;China-Pakistan/ORGANIZATION Economic/ORGANIZATION Corridor/ORGANIZATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -LRB-/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;CPEC/ORGANIZATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -RRB-/O ,/O Beijing/LOCATION aims/O to/O expand/O its/O influence/O on/O Pakistan/LOCATION and/O across/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;LOCATION&gt;Central/O&lt;/LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and/O South/LOCATION Asia/LOCATION in/O order/O to/O counter/O the/O US/LOCATION and/O Indian/O influence/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t>根据Wiki，CPEC是一条经济【走廊】，其功能与【丝路】类似，同时它经过【新疆喀什】，所以标记为【U_LOC】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPEC 标记为 【U_LOC】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;OTHER&gt;Will/PERSON&lt;/OTHER&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF606060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;OTHER&gt;Baloch/PERSON&lt;/OTHER&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> separatists/O ,/O who/O demand/O their/O share/O of/O the/O province/O 's/O wealth/O ,/O allow/O Islamabad/LOCATION to/O implement/O the/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;CPEC/ORGANIZATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ?/O</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baloch 标记为 【O】||Balochistan 标记为 【LOC】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baloch 是Balochistan【LOC】的人民，所以不是实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APEC 是否算 【ORG】，个人觉得算【ORG】,因为由多个国家组成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Before/O the/O referendum/O ,/O the/O Chinese/ORGANIZATION State/ORGANIZATION Council/ORGANIZATION </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF606060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;OTHER&gt;'s/ORGANIZATION&lt;/OTHER&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Information/ORGANIZATION Office/ORGANIZATION issued/O a/O white/O paper/O on/O June/O 9/O emphasizing/O the/O one/O country/O model/O and/O stressing/O that/O whatever/O power/O Hong/LOCATION Kong/LOCATION has/O ,/O it/O comes/O from/O Beijing/LOCATION ./O</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有者和被所有者的标注：【所有者】/【实体】 's/【其它】 【被所有者】/【实体】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见依据1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The/O mass/O show/O trials/O are/O proof/O that/O Chinese/O rule/O in/O </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070A1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;U_LOCATION&gt;East/LOCATION Turkestan/LOCATION&lt;/U_LOCATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is/O similar/O to/O that/O of/O the/O days/O of/O Mao/PERSON 's/O notorious/O Cultural/O Revolution/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t>文化大革命是事件，不是组织，所以不标注（可参考依据1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Patrick/PERSON Barron/PERSON ,/O </t>
+    <r>
+      <t>根据</t>
     </r>
     <r>
       <rPr>
@@ -294,83 +281,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;ORGANIZATION&gt;The/O&lt;/ORGANIZATION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Asia/ORGANIZATION Foundation/ORGANIZATION 's/O regional/O director/O for/O conflict/O and/O development/O ,/O says/O in/O a/O &lt;ORGANIZATION&gt;DW/O&lt;/ORGANIZATION&gt; interview/O that/O the/O growth-stimulating/O strategies/O chosen/O by/O Asian/O countries/O have/O led/O to/O such/O subnational/O conflicts/O ./O</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">August/O 21-25/O Sixth/O test/O (/O at/O The/I-LOC Oval/I-LOC ,/O London/I-LOC )/O ./O </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种【实体】名称前有【T】he，注意是T大写，则【The】 也是实体一部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宗教组织算【ORG】||可以参考标记NER标注规范中的【religious orders】（宗教组织）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The/O economics/O professor/O last/O taught/O at/O Beijing/LOCATION 's/O Minzu/ORGANIZATION University/ORGANIZATION and/O ,/O according/O to/O the/O charges/O against/O him/O ,/O also/O organized/O and/O led/O separatist/O groups/O ./O</t>
-  </si>
-  <si>
-    <t>根据依据一，还是各自标注，互不相干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THE/I-ORG MUSLIM/I-ORG</t>
-  </si>
-  <si>
-    <t>Muslim 到底算哪一种，【O】或者【ORG】，从语料库得到的依据1是可以标注为【ORG】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kremlin 要标记为【ORG】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the &lt;B_ENAMEX TYPE="ORGANIZATION"&gt;kremlin&lt;E_ENAMEX&gt; 来自 NER 标注规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品不标注，但是生产者要标注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">He/O said/O ministry/O officials/O made/O him/O sign/O this/O a/O few/O weeks/O ago/O after/O he/O brought/O about/O a/O dozen/O copies/O from/O Jordan/I-LOC of/O a/O book/O by/O Edward/I-PER Said/I-PER ,/O a/O prominent/O scholar/O at/O New/I-LOC York/I-LOC City/I-LOC 's/O Columbia/I-ORG University/I-ORG ./O </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Police/O also/O would/O not/O say/O why/O Wang/I-PER was/O being/O sent/O to/O a/O study/O class/O --/O a/O holdover/O from/O the/O chaotic/O 1966-76/I-MISC Cultural/I-MISC Revolution/I-MISC --/O or/O say/O when/O he/O would/O be/O released/O ,/O the/O group/O said/O ./O </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G20 是论坛、club的形式，算【ORG】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/O The/O United/I-LOC States/I-LOC will/O continue/O to/O return/O Cuban/I-MISC migrants/O intercepted/O at/O sea/O who/O seek/O to/O enter/O the/O United/I-LOC States/I-LOC or/O the/O Guantanamo/I-LOC Naval/I-LOC Base/I-LOC illegally/O ,/O /O it/O said/O ./O </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军事基地标注为【LOC】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boao Forum 是一个 非营利组织【from Wiki】，建议标注为【ORG】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Boao Forum </t>
+      <t>NER</t>
     </r>
     <r>
       <rPr>
@@ -380,7 +291,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>标注为【</t>
+      <t>标注手册中</t>
     </r>
     <r>
       <rPr>
@@ -389,7 +300,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ORG</t>
+      <t>P11</t>
     </r>
     <r>
       <rPr>
@@ -399,8 +310,163 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Treasury Secretary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Treasury </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要被标注为【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ORG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00319F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>】</t>
     </r>
+  </si>
+  <si>
+    <t>修饰职务或者人的实体词要标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER标注手册中以【Kaohsiung, Taiwan】为例，无论是否存在【，】分隔符，都是分别用两个实体而非一个实体来标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoNLL中White House ，Kremlin标记为【LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boao Forum 是一个 非营利组织【from Wiki】，确定标注为【ORG】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品不标注，但是带有生产者要标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Boao Forum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标注为【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ORG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE/I-ORG MUSLIM/I-ORG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Before/O the/O referendum/O ,/O the/O Chinese/ORGANIZATION State/ORGANIZATION Council/ORGANIZATION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF606060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;OTHER&gt;'s/ORGANIZATION&lt;/OTHER&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Information/ORGANIZATION Office/ORGANIZATION issued/O a/O white/O paper/O on/O June/O 9/O emphasizing/O the/O one/O country/O model/O and/O stressing/O that/O whatever/O power/O Hong/LOCATION Kong/LOCATION has/O ,/O it/O comes/O from/O Beijing/LOCATION ./O</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;OTHER&gt;Will/PERSON&lt;/OTHER&gt; &lt;OTHER&gt;Baloch/PERSON&lt;/OTHER&gt; separatists/O ,/O who/O demand/O their/O share/O of/O the/O province/O 's/O wealth/O ,/O allow/O Islamabad/LOCATION to/O implement/O the/O &lt;U_LOCATION&gt;CPEC/ORGANIZATION&lt;/U_LOCATION&gt; ?/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baloch 标记为 【O】||Balochistan 标记为 【LOC】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时，根据Wiki，Islam是宗教，Muslims不是宗教团体，是Islam中的一类人群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教组织算【ORG】||可以参考标记NER标注规范中的【religious orders】（宗教组织）||Muslims不标注，Islam标注为【ORG】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +520,39 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -475,13 +574,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -786,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -805,174 +909,192 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
